--- a/2_Micro_Plasma_Dispenser/MPD_Review Data_20190117.xlsx
+++ b/2_Micro_Plasma_Dispenser/MPD_Review Data_20190117.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A5A8AB-94D1-4842-9411-AACB2DFE0A23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Function" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Plasma On Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,12 +62,45 @@
   </si>
   <si>
     <t>4. Foot S/W DC Jack type으로 설계?</t>
+  </si>
+  <si>
+    <t>USB CON 실장 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PCB or 별도의 PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결정 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 Case에 미포함
+Main PCB에 하네스 연결용 CON만 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본체, Cable, HP body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일체형 or 분리형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,12 +143,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -391,84 +429,129 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.625" customWidth="1"/>
+    <col min="6" max="6" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C4" s="1"/>
-      <c r="D4" t="s">
+    <row r="4" spans="3:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="2" t="s">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="2" t="s">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C12" s="2" t="s">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.4">
-      <c r="C14" s="2" t="s">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2_Micro_Plasma_Dispenser/MPD_Review Data_20190117.xlsx
+++ b/2_Micro_Plasma_Dispenser/MPD_Review Data_20190117.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0636C9D1-B932-4954-B2F3-9878E816EE08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Function" sheetId="1" r:id="rId1"/>
+    <sheet name="Block Diagram" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Plasma On Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,13 +102,167 @@
   <si>
     <t>일체형 or 분리형</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAS_EN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOLEX5267-2P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOLEX5267-5P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_PWR</t>
+  </si>
+  <si>
+    <t>KEY_UP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY_DOWN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>+8.0V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULSE_OUT1</t>
+  </si>
+  <si>
+    <t>PULSE_OUT2</t>
+  </si>
+  <si>
+    <t>SHOT_SW_IN</t>
+  </si>
+  <si>
+    <t>MOLEX5267-6P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOLEX5267-3P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RS232_RX</t>
+  </si>
+  <si>
+    <t>RS232_TX</t>
+  </si>
+  <si>
+    <t>+3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA_LED_G</t>
+  </si>
+  <si>
+    <t>OP_LED</t>
+  </si>
+  <si>
+    <t>LED_HIGH</t>
+  </si>
+  <si>
+    <t>LED_MED</t>
+  </si>
+  <si>
+    <t>LED_LOW</t>
+  </si>
+  <si>
+    <t>DC Jack adaptor 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일체형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V S/V 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN101</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN102</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN103</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN104</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX-53047-0510</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOLEX-53398-0671</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PULSE_IN1</t>
+  </si>
+  <si>
+    <t>PULSE_IN2</t>
+  </si>
+  <si>
+    <t>KEY_OP</t>
+  </si>
+  <si>
+    <t>CN105</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,16 +283,46 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,22 +330,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -172,6 +512,1207 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119423</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>84590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>612162</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157651</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="화살표: 왼쪽 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1710326F-6623-4E89-9EC9-ADB270BEB524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3481188" y="998990"/>
+          <a:ext cx="492739" cy="297179"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>663388</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>75909</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5122BF22-9E31-4B1C-BBB6-11B04D01BDAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2008094" y="860613"/>
+          <a:ext cx="1429580" cy="659667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DC 5Vdc 5A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Adapter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ø5.5x2.5x10mm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(SW25-05005000-W)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12ABE548-1E07-49B8-89CA-8A1A21BC3313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3831771" y="555172"/>
+          <a:ext cx="4252472" cy="6204857"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3171"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>636494</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>49015</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF038D3A-A707-4989-AF8C-E7A4B59D6C4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="2330824"/>
+          <a:ext cx="1429580" cy="659667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>S/V</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0.5W</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> 5VDC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(X605SF)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101493</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594232</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>103864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="화살표: 왼쪽 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1192FA94-6D14-4C15-9811-3D3D55D23727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3463258" y="2558850"/>
+          <a:ext cx="492739" cy="297179"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A48192-7CBF-4DE3-B346-133E475CA9A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9133114" y="3015342"/>
+          <a:ext cx="3015342" cy="1763487"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3171"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106936</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>172251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A583A63-E1D6-43D8-AF9C-A76364E3FF17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353850" y="607680"/>
+          <a:ext cx="1123150" cy="404947"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MAIN PCB</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74278</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>215795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>174427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="사각형: 둥근 모서리 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE28F665-ADBC-4DA5-BDF8-29BA6D97E80D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10894678" y="3100509"/>
+          <a:ext cx="1123150" cy="404947"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>KEY PCB</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>642256</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>206830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="사각형: 둥근 모서리 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F8D8DA-7518-4734-918C-A613EB2ECF55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9122228" y="4842223"/>
+          <a:ext cx="3015342" cy="1819836"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3171"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63392</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="사각형: 둥근 모서리 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423102F6-C02E-490B-BCEF-F462BF1E7CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10883792" y="4961966"/>
+          <a:ext cx="1123150" cy="404947"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LED PCB</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>576942</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="사각형: 둥근 모서리 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDF8B5C-7120-41A1-873B-6B8619C7B028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9165771" y="489857"/>
+          <a:ext cx="2971800" cy="2438401"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3171"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>389964</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109113</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4291EA-015D-4BFF-91F9-06C2B14D1FDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10023821" y="575023"/>
+          <a:ext cx="1123150" cy="404947"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Trans PCB</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141515</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="화살표: 왼쪽/오른쪽 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CBECAC-E57E-435E-8F5E-28BC990325E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8055429" y="2002971"/>
+          <a:ext cx="1034143" cy="315685"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>195942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="화살표: 왼쪽/오른쪽 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CDC6A0-AC88-4B7A-ABA3-FA12BB997C73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8001000" y="3886200"/>
+          <a:ext cx="1034143" cy="315685"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1644A944-503F-44B9-92B2-69B65CB643C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8022771" y="5715000"/>
+          <a:ext cx="1034143" cy="315685"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,29 +1970,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.625" customWidth="1"/>
-    <col min="6" max="6" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.59765625" customWidth="1"/>
+    <col min="6" max="6" width="37.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.4">
       <c r="E2" t="s">
         <v>14</v>
       </c>
@@ -459,92 +2000,110 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="3:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="3:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -556,4 +2115,447 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF322464-2693-44A8-B743-160FC082020E}">
+  <dimension ref="G5:P30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="4.09765625" customWidth="1"/>
+    <col min="8" max="8" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.19921875" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.796875" customWidth="1"/>
+    <col min="16" max="16" width="15.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="K6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="O6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="O7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="G9" s="13">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="13">
+        <v>2</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="13">
+        <v>2</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G10" s="11">
+        <v>3</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="13">
+        <v>3</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="13">
+        <v>3</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="K11" s="13">
+        <v>4</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="13">
+        <v>4</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K12" s="13">
+        <v>5</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="13">
+        <v>5</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="K13" s="11">
+        <v>6</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="11">
+        <v>6</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="O15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G16" s="11">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="O16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="K17" s="9">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K18" s="13">
+        <v>2</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="13">
+        <v>2</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="G19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="K19" s="13">
+        <v>3</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="13">
+        <v>3</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="K20" s="13">
+        <v>4</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="13">
+        <v>4</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G21" s="9">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="11">
+        <v>5</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="11">
+        <v>5</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G22" s="13">
+        <v>2</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G23" s="11">
+        <v>3</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="O23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="O24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K25" s="9">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="9">
+        <v>1</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="G26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="K26" s="13">
+        <v>2</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="13">
+        <v>2</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="K27" s="13">
+        <v>3</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="13">
+        <v>3</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="G28" s="9">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="13">
+        <v>4</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O28" s="13">
+        <v>4</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G29" s="11">
+        <v>2</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="13">
+        <v>5</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O29" s="13">
+        <v>5</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K30" s="11">
+        <v>6</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="11">
+        <v>6</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/2_Micro_Plasma_Dispenser/MPD_Review Data_20190117.xlsx
+++ b/2_Micro_Plasma_Dispenser/MPD_Review Data_20190117.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0636C9D1-B932-4954-B2F3-9878E816EE08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Function" sheetId="1" r:id="rId1"/>
     <sheet name="Block Diagram" sheetId="2" r:id="rId2"/>
+    <sheet name="Issue" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>Plasma On Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,12 +256,66 @@
   <si>
     <t>CN105</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/V VCC 전압 결정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pipette은 3VDC 사용
+ - MPD : 5VDC 사용으로 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP Cable이 HP에서 고정이 안되는 경우, 
+Cable과 연결되는 CON는 hook가 있는 type으로 변경 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cable이 당겨지는 경우, CON가 빠진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,7 +362,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +375,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -446,11 +506,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -461,6 +611,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -476,26 +647,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,7 +750,7 @@
         <xdr:cNvPr id="2" name="화살표: 왼쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1710326F-6623-4E89-9EC9-ADB270BEB524}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1710326F-6623-4E89-9EC9-ADB270BEB524}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -597,7 +813,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5122BF22-9E31-4B1C-BBB6-11B04D01BDAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5122BF22-9E31-4B1C-BBB6-11B04D01BDAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -704,7 +920,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12ABE548-1E07-49B8-89CA-8A1A21BC3313}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12ABE548-1E07-49B8-89CA-8A1A21BC3313}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -764,116 +980,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>636494</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>49015</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>5244</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="직사각형 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF038D3A-A707-4989-AF8C-E7A4B59D6C4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1981200" y="2330824"/>
-          <a:ext cx="1429580" cy="659667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>S/V</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0.5W</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> 5VDC</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(X605SF)</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>101493</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -890,7 +996,7 @@
         <xdr:cNvPr id="6" name="화살표: 왼쪽 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1192FA94-6D14-4C15-9811-3D3D55D23727}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1192FA94-6D14-4C15-9811-3D3D55D23727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +1056,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A48192-7CBF-4DE3-B346-133E475CA9A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8A48192-7CBF-4DE3-B346-133E475CA9A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,7 +1132,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A583A63-E1D6-43D8-AF9C-A76364E3FF17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A583A63-E1D6-43D8-AF9C-A76364E3FF17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,7 +1225,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE28F665-ADBC-4DA5-BDF8-29BA6D97E80D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE28F665-ADBC-4DA5-BDF8-29BA6D97E80D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1318,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F8D8DA-7518-4734-918C-A613EB2ECF55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04F8D8DA-7518-4734-918C-A613EB2ECF55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1394,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423102F6-C02E-490B-BCEF-F462BF1E7CA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423102F6-C02E-490B-BCEF-F462BF1E7CA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1487,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDF8B5C-7120-41A1-873B-6B8619C7B028}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CDF8B5C-7120-41A1-873B-6B8619C7B028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1563,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4291EA-015D-4BFF-91F9-06C2B14D1FDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C4291EA-015D-4BFF-91F9-06C2B14D1FDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1656,7 @@
         <xdr:cNvPr id="15" name="화살표: 왼쪽/오른쪽 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CBECAC-E57E-435E-8F5E-28BC990325E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58CBECAC-E57E-435E-8F5E-28BC990325E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1716,7 @@
         <xdr:cNvPr id="16" name="화살표: 왼쪽/오른쪽 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CDC6A0-AC88-4B7A-ABA3-FA12BB997C73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6CDC6A0-AC88-4B7A-ABA3-FA12BB997C73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1776,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1644A944-503F-44B9-92B2-69B65CB643C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1644A944-503F-44B9-92B2-69B65CB643C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,29 +2076,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.59765625" customWidth="1"/>
-    <col min="6" max="6" width="37.8984375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.625" customWidth="1"/>
+    <col min="6" max="6" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>14</v>
       </c>
@@ -2000,16 +2106,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="C4" s="4"/>
+    <row r="4" spans="3:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="C4" s="11"/>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2017,7 +2123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:6" ht="33" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2028,8 +2134,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2039,8 +2145,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
-      <c r="C7" s="4"/>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="11"/>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2051,7 +2157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
@@ -2065,7 +2171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
         <v>48</v>
@@ -2074,35 +2180,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2118,444 +2224,677 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF322464-2693-44A8-B743-160FC082020E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G5:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="4.09765625" customWidth="1"/>
-    <col min="8" max="8" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.19921875" customWidth="1"/>
-    <col min="12" max="12" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.796875" customWidth="1"/>
-    <col min="16" max="16" width="15.69921875" customWidth="1"/>
+    <col min="7" max="7" width="4.125" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.25" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G6" s="5" t="s">
+    <row r="5" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="K6" s="5" t="s">
+      <c r="H6" s="13"/>
+      <c r="K6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="O6" s="5" t="s">
+      <c r="L6" s="13"/>
+      <c r="O6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G7" s="7" t="s">
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="K7" s="7" t="s">
+      <c r="H7" s="15"/>
+      <c r="K7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="O7" s="7" t="s">
+      <c r="L7" s="15"/>
+      <c r="O7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G8" s="9">
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="4">
         <v>1</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="4">
         <v>1</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G9" s="13">
+    <row r="9" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G9" s="8">
         <v>2</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="8">
         <v>2</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="8">
         <v>2</v>
       </c>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G10" s="11">
+    <row r="10" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="6">
         <v>3</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="8">
         <v>3</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="8">
         <v>3</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="P10" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="K11" s="13">
+    <row r="11" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="K11" s="8">
         <v>4</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="8">
         <v>4</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K12" s="13">
+    <row r="12" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="8">
         <v>5</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="8">
         <v>5</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G13" s="5" t="s">
+    <row r="13" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="K13" s="11">
+      <c r="H13" s="13"/>
+      <c r="K13" s="6">
         <v>6</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="6">
         <v>6</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G14" s="7" t="s">
+    <row r="14" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G15" s="9">
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="O15" s="5" t="s">
+      <c r="L15" s="13"/>
+      <c r="O15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G16" s="11">
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="6">
         <v>2</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="O16" s="7" t="s">
+      <c r="L16" s="15"/>
+      <c r="O16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="K17" s="9">
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="K17" s="4">
         <v>1</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="4">
         <v>1</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K18" s="13">
+    <row r="18" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="8">
         <v>2</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="8">
         <v>2</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G19" s="5" t="s">
+    <row r="19" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="K19" s="13">
+      <c r="H19" s="13"/>
+      <c r="K19" s="8">
         <v>3</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="8">
         <v>3</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G20" s="7" t="s">
+    <row r="20" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="K20" s="13">
+      <c r="H20" s="15"/>
+      <c r="K20" s="8">
         <v>4</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="8">
         <v>4</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G21" s="9">
+    <row r="21" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="6">
         <v>5</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="6">
         <v>5</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="P21" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G22" s="13">
+    <row r="22" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="8">
         <v>2</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G23" s="11">
+    <row r="23" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="6">
         <v>3</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="O23" s="5" t="s">
+      <c r="L23" s="13"/>
+      <c r="O23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K24" s="7" t="s">
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="O24" s="7" t="s">
+      <c r="L24" s="15"/>
+      <c r="O24" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K25" s="9">
+      <c r="P24" s="15"/>
+    </row>
+    <row r="25" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="4">
         <v>1</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="4">
         <v>1</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="P25" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G26" s="5" t="s">
+    <row r="26" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G26" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="K26" s="13">
+      <c r="H26" s="13"/>
+      <c r="K26" s="8">
         <v>2</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="8">
         <v>2</v>
       </c>
-      <c r="P26" s="14" t="s">
+      <c r="P26" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G27" s="7" t="s">
+    <row r="27" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="K27" s="13">
+      <c r="H27" s="15"/>
+      <c r="K27" s="8">
         <v>3</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="8">
         <v>3</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="P27" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G28" s="9">
+    <row r="28" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="8">
         <v>4</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="8">
         <v>4</v>
       </c>
-      <c r="P28" s="14" t="s">
+      <c r="P28" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G29" s="11">
+    <row r="29" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="6">
         <v>2</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="8">
         <v>5</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="8">
         <v>5</v>
       </c>
-      <c r="P29" s="14" t="s">
+      <c r="P29" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="7:16" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K30" s="11">
+    <row r="30" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="6">
         <v>6</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="6">
         <v>6</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="P30" s="7" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="5.875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="20"/>
+    <col min="6" max="6" width="53" style="3" customWidth="1"/>
+    <col min="7" max="7" width="48.875" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <v>43716</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="26">
+        <v>2</v>
+      </c>
+      <c r="C6" s="27">
+        <v>43716</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="32"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2_Micro_Plasma_Dispenser/MPD_Review Data_20190117.xlsx
+++ b/2_Micro_Plasma_Dispenser/MPD_Review Data_20190117.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Function" sheetId="1" r:id="rId1"/>
     <sheet name="Block Diagram" sheetId="2" r:id="rId2"/>
     <sheet name="Issue" sheetId="3" r:id="rId3"/>
+    <sheet name="ADC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>Plasma On Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +310,54 @@
   </si>
   <si>
     <t>Cable이 당겨지는 경우, CON가 빠진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_Batt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V_ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +365,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,8 +413,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +440,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -596,11 +661,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -633,6 +737,106 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,72 +851,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2107,7 +2255,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="55" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2115,7 +2263,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="C4" s="11"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2135,7 +2283,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="55" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2146,7 +2294,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="11"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2243,32 +2391,32 @@
   <sheetData>
     <row r="5" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="K6" s="12" t="s">
+      <c r="H6" s="57"/>
+      <c r="K6" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="O6" s="12" t="s">
+      <c r="L6" s="57"/>
+      <c r="O6" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="13"/>
+      <c r="P6" s="57"/>
     </row>
     <row r="7" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="K7" s="14" t="s">
+      <c r="H7" s="59"/>
+      <c r="K7" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="O7" s="14" t="s">
+      <c r="L7" s="59"/>
+      <c r="O7" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="15"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G8" s="4">
@@ -2359,10 +2507,10 @@
       </c>
     </row>
     <row r="13" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="57"/>
       <c r="K13" s="6">
         <v>6</v>
       </c>
@@ -2377,10 +2525,10 @@
       </c>
     </row>
     <row r="14" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G15" s="4">
@@ -2389,14 +2537,14 @@
       <c r="H15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="O15" s="12" t="s">
+      <c r="L15" s="57"/>
+      <c r="O15" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="57"/>
     </row>
     <row r="16" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="6">
@@ -2405,14 +2553,14 @@
       <c r="H16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="15"/>
-      <c r="O16" s="14" t="s">
+      <c r="L16" s="59"/>
+      <c r="O16" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="15"/>
+      <c r="P16" s="59"/>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.3">
       <c r="K17" s="4">
@@ -2443,10 +2591,10 @@
       </c>
     </row>
     <row r="19" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="57"/>
       <c r="K19" s="8">
         <v>3</v>
       </c>
@@ -2461,10 +2609,10 @@
       </c>
     </row>
     <row r="20" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="59"/>
       <c r="K20" s="8">
         <v>4</v>
       </c>
@@ -2513,24 +2661,24 @@
       <c r="H23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="O23" s="12" t="s">
+      <c r="L23" s="57"/>
+      <c r="O23" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="P23" s="13"/>
+      <c r="P23" s="57"/>
     </row>
     <row r="24" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K24" s="14" t="s">
+      <c r="K24" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="15"/>
-      <c r="O24" s="14" t="s">
+      <c r="L24" s="59"/>
+      <c r="O24" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="P24" s="15"/>
+      <c r="P24" s="59"/>
     </row>
     <row r="25" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K25" s="4">
@@ -2547,10 +2695,10 @@
       </c>
     </row>
     <row r="26" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="57"/>
       <c r="K26" s="8">
         <v>2</v>
       </c>
@@ -2565,10 +2713,10 @@
       </c>
     </row>
     <row r="27" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="59"/>
       <c r="K27" s="8">
         <v>3</v>
       </c>
@@ -2670,231 +2818,884 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="5.875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="5.875" style="15" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="20"/>
+    <col min="4" max="5" width="9" style="15"/>
     <col min="6" max="6" width="53" style="3" customWidth="1"/>
-    <col min="7" max="7" width="48.875" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="16"/>
+    <col min="7" max="7" width="48.875" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="2:7" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="23">
+      <c r="B5" s="18">
         <v>1</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="19">
         <v>43716</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="26">
+      <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="22">
         <v>43716</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="30" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="35"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="35"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="35"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="35"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="35"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="35"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="35"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="35"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="35"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="35"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="35"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="35"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="35"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="35"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="35"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="35"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="35"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C25" s="32"/>
+      <c r="C25" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="37">
+        <v>10</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="40">
+        <v>30</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="33">
+        <v>6</v>
+      </c>
+      <c r="D7" s="34">
+        <f>$C7*E$5/(E$5+E$4)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E7" s="35">
+        <f>255*D7/3.3</f>
+        <v>347.72727272727275</v>
+      </c>
+      <c r="F7" s="34">
+        <f>$C7*G$5/(G$5+G$4)</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="35">
+        <f>255*F7/3.3</f>
+        <v>231.81818181818184</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>5.9</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" ref="D8:F18" si="0">$C8*E$5/(E$5+E$4)</f>
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="E8" s="35">
+        <f t="shared" ref="E8:G18" si="1">255*D8/3.3</f>
+        <v>341.93181818181819</v>
+      </c>
+      <c r="F8" s="34">
+        <f t="shared" si="0"/>
+        <v>2.95</v>
+      </c>
+      <c r="G8" s="35">
+        <f t="shared" si="1"/>
+        <v>227.95454545454547</v>
+      </c>
+      <c r="L8" s="47">
+        <v>4.2</v>
+      </c>
+      <c r="M8" s="48">
+        <v>3.15</v>
+      </c>
+      <c r="N8" s="49">
+        <v>243.40909090909093</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="33">
+        <v>5.8</v>
+      </c>
+      <c r="D9" s="34">
+        <f t="shared" si="0"/>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E9" s="35">
+        <f t="shared" si="1"/>
+        <v>336.13636363636363</v>
+      </c>
+      <c r="F9" s="34">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="G9" s="35">
+        <f t="shared" si="1"/>
+        <v>224.09090909090909</v>
+      </c>
+      <c r="L9" s="50">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M9" s="51">
+        <v>3.0749999999999997</v>
+      </c>
+      <c r="N9" s="35">
+        <v>237.61363636363635</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>5.7</v>
+      </c>
+      <c r="D10" s="34">
+        <f t="shared" si="0"/>
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="E10" s="35">
+        <f t="shared" si="1"/>
+        <v>330.34090909090912</v>
+      </c>
+      <c r="F10" s="34">
+        <f t="shared" si="0"/>
+        <v>2.85</v>
+      </c>
+      <c r="G10" s="35">
+        <f t="shared" si="1"/>
+        <v>220.22727272727275</v>
+      </c>
+      <c r="L10" s="50">
+        <v>4</v>
+      </c>
+      <c r="M10" s="51">
+        <v>3</v>
+      </c>
+      <c r="N10" s="35">
+        <v>231.81818181818184</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C11" s="33">
+        <v>5.6</v>
+      </c>
+      <c r="D11" s="34">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="35">
+        <f t="shared" si="1"/>
+        <v>324.54545454545456</v>
+      </c>
+      <c r="F11" s="34">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="G11" s="35">
+        <f t="shared" si="1"/>
+        <v>216.36363636363637</v>
+      </c>
+      <c r="L11" s="50">
+        <v>3.9</v>
+      </c>
+      <c r="M11" s="51">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="N11" s="35">
+        <v>226.02272727272728</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="60">
+        <v>5.5</v>
+      </c>
+      <c r="D12" s="61">
+        <f t="shared" si="0"/>
+        <v>4.125</v>
+      </c>
+      <c r="E12" s="62">
+        <f t="shared" si="1"/>
+        <v>318.75</v>
+      </c>
+      <c r="F12" s="61">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="G12" s="62">
+        <f t="shared" si="1"/>
+        <v>212.5</v>
+      </c>
+      <c r="L12" s="50">
+        <v>3.8</v>
+      </c>
+      <c r="M12" s="51">
+        <v>2.85</v>
+      </c>
+      <c r="N12" s="35">
+        <v>220.22727272727275</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C13" s="33">
+        <v>5.4</v>
+      </c>
+      <c r="D13" s="34">
+        <f t="shared" si="0"/>
+        <v>4.05</v>
+      </c>
+      <c r="E13" s="35">
+        <f t="shared" si="1"/>
+        <v>312.9545454545455</v>
+      </c>
+      <c r="F13" s="34">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="G13" s="35">
+        <f t="shared" si="1"/>
+        <v>208.63636363636365</v>
+      </c>
+      <c r="L13" s="50">
+        <v>3.7</v>
+      </c>
+      <c r="M13" s="51">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="N13" s="35">
+        <v>214.43181818181819</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>5.3</v>
+      </c>
+      <c r="D14" s="34">
+        <f t="shared" si="0"/>
+        <v>3.9750000000000001</v>
+      </c>
+      <c r="E14" s="35">
+        <f t="shared" si="1"/>
+        <v>307.15909090909093</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" si="0"/>
+        <v>2.65</v>
+      </c>
+      <c r="G14" s="35">
+        <f t="shared" si="1"/>
+        <v>204.77272727272728</v>
+      </c>
+      <c r="L14" s="50">
+        <v>3.6</v>
+      </c>
+      <c r="M14" s="51">
+        <v>2.7</v>
+      </c>
+      <c r="N14" s="35">
+        <v>208.63636363636365</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C15" s="33">
+        <v>5.2</v>
+      </c>
+      <c r="D15" s="34">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="E15" s="35">
+        <f t="shared" si="1"/>
+        <v>301.36363636363637</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="G15" s="35">
+        <f t="shared" si="1"/>
+        <v>200.90909090909091</v>
+      </c>
+      <c r="L15" s="50">
+        <v>3.5</v>
+      </c>
+      <c r="M15" s="51">
+        <v>2.625</v>
+      </c>
+      <c r="N15" s="35">
+        <v>202.84090909090909</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="67">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D16" s="68">
+        <f t="shared" si="0"/>
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="E16" s="69">
+        <f t="shared" si="1"/>
+        <v>295.56818181818181</v>
+      </c>
+      <c r="F16" s="68">
+        <f t="shared" si="0"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G16" s="69">
+        <f t="shared" si="1"/>
+        <v>197.04545454545456</v>
+      </c>
+      <c r="L16" s="50">
+        <v>3.4</v>
+      </c>
+      <c r="M16" s="51">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="N16" s="35">
+        <v>197.04545454545456</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="66">
+        <v>5</v>
+      </c>
+      <c r="D17" s="64">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="E17" s="65">
+        <f t="shared" si="1"/>
+        <v>289.77272727272731</v>
+      </c>
+      <c r="F17" s="64">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="G17" s="65">
+        <f t="shared" si="1"/>
+        <v>193.18181818181819</v>
+      </c>
+      <c r="L17" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="M17" s="53">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="N17" s="54">
+        <v>191.25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D18" s="34">
+        <f t="shared" si="0"/>
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="E18" s="35">
+        <f t="shared" si="1"/>
+        <v>283.97727272727275</v>
+      </c>
+      <c r="F18" s="34">
+        <f t="shared" si="0"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G18" s="35">
+        <f t="shared" si="1"/>
+        <v>189.31818181818184</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="33">
+        <v>4.8</v>
+      </c>
+      <c r="D19" s="34">
+        <f t="shared" ref="D19" si="2">$C19*E$5/(E$5+E$4)</f>
+        <v>3.6</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" ref="E19" si="3">255*D19/3.3</f>
+        <v>278.18181818181819</v>
+      </c>
+      <c r="F19" s="34">
+        <f t="shared" ref="F19" si="4">$C19*G$5/(G$5+G$4)</f>
+        <v>2.4</v>
+      </c>
+      <c r="G19" s="35">
+        <f t="shared" ref="G19" si="5">255*F19/3.3</f>
+        <v>185.45454545454547</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>4.7</v>
+      </c>
+      <c r="D20" s="34">
+        <f t="shared" ref="D20" si="6">$C20*E$5/(E$5+E$4)</f>
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="E20" s="35">
+        <f t="shared" ref="E20" si="7">255*D20/3.3</f>
+        <v>272.38636363636363</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" ref="F20" si="8">$C20*G$5/(G$5+G$4)</f>
+        <v>2.35</v>
+      </c>
+      <c r="G20" s="35">
+        <f t="shared" ref="G20" si="9">255*F20/3.3</f>
+        <v>181.59090909090909</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21" s="33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D21" s="34">
+        <f t="shared" ref="D21" si="10">$C21*E$5/(E$5+E$4)</f>
+        <v>3.45</v>
+      </c>
+      <c r="E21" s="35">
+        <f t="shared" ref="E21" si="11">255*D21/3.3</f>
+        <v>266.59090909090912</v>
+      </c>
+      <c r="F21" s="34">
+        <f t="shared" ref="F21" si="12">$C21*G$5/(G$5+G$4)</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G21" s="35">
+        <f t="shared" ref="G21" si="13">255*F21/3.3</f>
+        <v>177.72727272727275</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>4.5000000000000098</v>
+      </c>
+      <c r="D22" s="34">
+        <f t="shared" ref="D22" si="14">$C22*E$5/(E$5+E$4)</f>
+        <v>3.3750000000000071</v>
+      </c>
+      <c r="E22" s="35">
+        <f t="shared" ref="E22" si="15">255*D22/3.3</f>
+        <v>260.79545454545513</v>
+      </c>
+      <c r="F22" s="34">
+        <f t="shared" ref="F22" si="16">$C22*G$5/(G$5+G$4)</f>
+        <v>2.2500000000000049</v>
+      </c>
+      <c r="G22" s="35">
+        <f t="shared" ref="G22" si="17">255*F22/3.3</f>
+        <v>173.86363636363674</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C23" s="33">
+        <v>4.4000000000000101</v>
+      </c>
+      <c r="D23" s="34">
+        <f t="shared" ref="D23" si="18">$C23*E$5/(E$5+E$4)</f>
+        <v>3.3000000000000078</v>
+      </c>
+      <c r="E23" s="35">
+        <f t="shared" ref="E23" si="19">255*D23/3.3</f>
+        <v>255.00000000000063</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" ref="F23" si="20">$C23*G$5/(G$5+G$4)</f>
+        <v>2.2000000000000051</v>
+      </c>
+      <c r="G23" s="35">
+        <f t="shared" ref="G23" si="21">255*F23/3.3</f>
+        <v>170.0000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>4.3000000000000096</v>
+      </c>
+      <c r="D24" s="34">
+        <f t="shared" ref="D24:D29" si="22">$C24*E$5/(E$5+E$4)</f>
+        <v>3.2250000000000072</v>
+      </c>
+      <c r="E24" s="35">
+        <f t="shared" ref="E24:E29" si="23">255*D24/3.3</f>
+        <v>249.20454545454601</v>
+      </c>
+      <c r="F24" s="34">
+        <f t="shared" ref="F24:F29" si="24">$C24*G$5/(G$5+G$4)</f>
+        <v>2.1500000000000048</v>
+      </c>
+      <c r="G24" s="35">
+        <f t="shared" ref="G24:G29" si="25">255*F24/3.3</f>
+        <v>166.13636363636402</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="33">
+        <v>4.2000000000000099</v>
+      </c>
+      <c r="D25" s="34">
+        <f t="shared" si="22"/>
+        <v>3.1500000000000075</v>
+      </c>
+      <c r="E25" s="35">
+        <f t="shared" si="23"/>
+        <v>243.4090909090915</v>
+      </c>
+      <c r="F25" s="34">
+        <f t="shared" si="24"/>
+        <v>2.100000000000005</v>
+      </c>
+      <c r="G25" s="35">
+        <f t="shared" si="25"/>
+        <v>162.27272727272765</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>4.1000000000000103</v>
+      </c>
+      <c r="D26" s="34">
+        <f t="shared" si="22"/>
+        <v>3.0750000000000077</v>
+      </c>
+      <c r="E26" s="35">
+        <f t="shared" si="23"/>
+        <v>237.61363636363697</v>
+      </c>
+      <c r="F26" s="34">
+        <f t="shared" si="24"/>
+        <v>2.0500000000000052</v>
+      </c>
+      <c r="G26" s="35">
+        <f t="shared" si="25"/>
+        <v>158.40909090909133</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="63">
+        <v>4.0000000000000098</v>
+      </c>
+      <c r="D27" s="61">
+        <f t="shared" si="22"/>
+        <v>3.0000000000000075</v>
+      </c>
+      <c r="E27" s="62">
+        <f t="shared" si="23"/>
+        <v>231.81818181818241</v>
+      </c>
+      <c r="F27" s="61">
+        <f t="shared" si="24"/>
+        <v>2.0000000000000049</v>
+      </c>
+      <c r="G27" s="62">
+        <f t="shared" si="25"/>
+        <v>154.54545454545493</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>3.9000000000000101</v>
+      </c>
+      <c r="D28" s="34">
+        <f t="shared" si="22"/>
+        <v>2.9250000000000074</v>
+      </c>
+      <c r="E28" s="35">
+        <f t="shared" si="23"/>
+        <v>226.02272727272788</v>
+      </c>
+      <c r="F28" s="34">
+        <f t="shared" si="24"/>
+        <v>1.9500000000000051</v>
+      </c>
+      <c r="G28" s="35">
+        <f t="shared" si="25"/>
+        <v>150.68181818181858</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C29" s="33">
+        <v>3.80000000000001</v>
+      </c>
+      <c r="D29" s="34">
+        <f t="shared" si="22"/>
+        <v>2.8500000000000076</v>
+      </c>
+      <c r="E29" s="35">
+        <f t="shared" si="23"/>
+        <v>220.22727272727332</v>
+      </c>
+      <c r="F29" s="34">
+        <f t="shared" si="24"/>
+        <v>1.900000000000005</v>
+      </c>
+      <c r="G29" s="35">
+        <f t="shared" si="25"/>
+        <v>146.81818181818221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2_Micro_Plasma_Dispenser/MPD_Review Data_20190117.xlsx
+++ b/2_Micro_Plasma_Dispenser/MPD_Review Data_20190117.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-23145" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Function" sheetId="1" r:id="rId1"/>
     <sheet name="Block Diagram" sheetId="2" r:id="rId2"/>
     <sheet name="Issue" sheetId="3" r:id="rId3"/>
     <sheet name="ADC" sheetId="4" r:id="rId4"/>
+    <sheet name="LM2735" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>Plasma On Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +359,26 @@
   </si>
   <si>
     <t>ADC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vout에 대한 R2 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1,R2에 대한 Vout 계산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -836,21 +857,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -861,6 +867,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -898,7 +921,7 @@
         <xdr:cNvPr id="2" name="화살표: 왼쪽 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1710326F-6623-4E89-9EC9-ADB270BEB524}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1710326F-6623-4E89-9EC9-ADB270BEB524}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -961,7 +984,7 @@
         <xdr:cNvPr id="3" name="직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5122BF22-9E31-4B1C-BBB6-11B04D01BDAA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5122BF22-9E31-4B1C-BBB6-11B04D01BDAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1068,7 +1091,7 @@
         <xdr:cNvPr id="4" name="사각형: 둥근 모서리 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12ABE548-1E07-49B8-89CA-8A1A21BC3313}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12ABE548-1E07-49B8-89CA-8A1A21BC3313}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,7 +1167,7 @@
         <xdr:cNvPr id="6" name="화살표: 왼쪽 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1192FA94-6D14-4C15-9811-3D3D55D23727}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1192FA94-6D14-4C15-9811-3D3D55D23727}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1204,7 +1227,7 @@
         <xdr:cNvPr id="8" name="사각형: 둥근 모서리 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8A48192-7CBF-4DE3-B346-133E475CA9A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A48192-7CBF-4DE3-B346-133E475CA9A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1280,7 +1303,7 @@
         <xdr:cNvPr id="9" name="사각형: 둥근 모서리 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A583A63-E1D6-43D8-AF9C-A76364E3FF17}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A583A63-E1D6-43D8-AF9C-A76364E3FF17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1373,7 +1396,7 @@
         <xdr:cNvPr id="10" name="사각형: 둥근 모서리 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE28F665-ADBC-4DA5-BDF8-29BA6D97E80D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE28F665-ADBC-4DA5-BDF8-29BA6D97E80D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1489,7 @@
         <xdr:cNvPr id="11" name="사각형: 둥근 모서리 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04F8D8DA-7518-4734-918C-A613EB2ECF55}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F8D8DA-7518-4734-918C-A613EB2ECF55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1565,7 @@
         <xdr:cNvPr id="12" name="사각형: 둥근 모서리 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{423102F6-C02E-490B-BCEF-F462BF1E7CA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423102F6-C02E-490B-BCEF-F462BF1E7CA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1658,7 @@
         <xdr:cNvPr id="13" name="사각형: 둥근 모서리 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CDF8B5C-7120-41A1-873B-6B8619C7B028}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDF8B5C-7120-41A1-873B-6B8619C7B028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1734,7 @@
         <xdr:cNvPr id="14" name="사각형: 둥근 모서리 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C4291EA-015D-4BFF-91F9-06C2B14D1FDC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4291EA-015D-4BFF-91F9-06C2B14D1FDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1827,7 @@
         <xdr:cNvPr id="15" name="화살표: 왼쪽/오른쪽 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58CBECAC-E57E-435E-8F5E-28BC990325E2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58CBECAC-E57E-435E-8F5E-28BC990325E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1864,7 +1887,7 @@
         <xdr:cNvPr id="16" name="화살표: 왼쪽/오른쪽 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6CDC6A0-AC88-4B7A-ABA3-FA12BB997C73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CDC6A0-AC88-4B7A-ABA3-FA12BB997C73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1924,7 +1947,7 @@
         <xdr:cNvPr id="17" name="화살표: 왼쪽/오른쪽 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1644A944-503F-44B9-92B2-69B65CB643C8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1644A944-503F-44B9-92B2-69B65CB643C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2255,7 +2278,7 @@
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -2263,7 +2286,7 @@
       </c>
     </row>
     <row r="4" spans="3:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="C4" s="55"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2283,7 +2306,7 @@
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="65" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2294,7 +2317,7 @@
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="55"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2391,32 +2414,32 @@
   <sheetData>
     <row r="5" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="K6" s="56" t="s">
+      <c r="H6" s="67"/>
+      <c r="K6" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="O6" s="56" t="s">
+      <c r="L6" s="67"/>
+      <c r="O6" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="P6" s="57"/>
+      <c r="P6" s="67"/>
     </row>
     <row r="7" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="K7" s="58" t="s">
+      <c r="H7" s="69"/>
+      <c r="K7" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="59"/>
-      <c r="O7" s="58" t="s">
+      <c r="L7" s="69"/>
+      <c r="O7" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="P7" s="59"/>
+      <c r="P7" s="69"/>
     </row>
     <row r="8" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G8" s="4">
@@ -2507,10 +2530,10 @@
       </c>
     </row>
     <row r="13" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="67"/>
       <c r="K13" s="6">
         <v>6</v>
       </c>
@@ -2525,10 +2548,10 @@
       </c>
     </row>
     <row r="14" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="59"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G15" s="4">
@@ -2537,14 +2560,14 @@
       <c r="H15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="56" t="s">
+      <c r="K15" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="57"/>
-      <c r="O15" s="56" t="s">
+      <c r="L15" s="67"/>
+      <c r="O15" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="P15" s="57"/>
+      <c r="P15" s="67"/>
     </row>
     <row r="16" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="6">
@@ -2553,14 +2576,14 @@
       <c r="H16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="59"/>
-      <c r="O16" s="58" t="s">
+      <c r="L16" s="69"/>
+      <c r="O16" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="59"/>
+      <c r="P16" s="69"/>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.3">
       <c r="K17" s="4">
@@ -2591,10 +2614,10 @@
       </c>
     </row>
     <row r="19" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G19" s="56" t="s">
+      <c r="G19" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="57"/>
+      <c r="H19" s="67"/>
       <c r="K19" s="8">
         <v>3</v>
       </c>
@@ -2609,10 +2632,10 @@
       </c>
     </row>
     <row r="20" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="59"/>
+      <c r="H20" s="69"/>
       <c r="K20" s="8">
         <v>4</v>
       </c>
@@ -2661,24 +2684,24 @@
       <c r="H23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="57"/>
-      <c r="O23" s="56" t="s">
+      <c r="L23" s="67"/>
+      <c r="O23" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="P23" s="57"/>
+      <c r="P23" s="67"/>
     </row>
     <row r="24" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K24" s="58" t="s">
+      <c r="K24" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="59"/>
-      <c r="O24" s="58" t="s">
+      <c r="L24" s="69"/>
+      <c r="O24" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="P24" s="59"/>
+      <c r="P24" s="69"/>
     </row>
     <row r="25" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K25" s="4">
@@ -2695,10 +2718,10 @@
       </c>
     </row>
     <row r="26" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="57"/>
+      <c r="H26" s="67"/>
       <c r="K26" s="8">
         <v>2</v>
       </c>
@@ -2713,10 +2736,10 @@
       </c>
     </row>
     <row r="27" spans="7:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="59"/>
+      <c r="H27" s="69"/>
       <c r="K27" s="8">
         <v>3</v>
       </c>
@@ -2786,6 +2809,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="K6:L6"/>
@@ -2797,15 +2829,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3051,7 +3074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -3262,22 +3285,22 @@
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="60">
+      <c r="C12" s="55">
         <v>5.5</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="56">
         <f t="shared" si="0"/>
         <v>4.125</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="57">
         <f t="shared" si="1"/>
         <v>318.75</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="56">
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="57">
         <f t="shared" si="1"/>
         <v>212.5</v>
       </c>
@@ -3382,22 +3405,22 @@
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C16" s="67">
+      <c r="C16" s="62">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="63">
         <f t="shared" si="0"/>
         <v>3.8250000000000002</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="64">
         <f t="shared" si="1"/>
         <v>295.56818181818181</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="63">
         <f t="shared" si="0"/>
         <v>2.5499999999999998</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="64">
         <f t="shared" si="1"/>
         <v>197.04545454545456</v>
       </c>
@@ -3412,22 +3435,22 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="66">
+      <c r="C17" s="61">
         <v>5</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="59">
         <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
-      <c r="E17" s="65">
+      <c r="E17" s="60">
         <f t="shared" si="1"/>
         <v>289.77272727272731</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="59">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="60">
         <f t="shared" si="1"/>
         <v>193.18181818181819</v>
       </c>
@@ -3631,22 +3654,22 @@
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C27" s="63">
+      <c r="C27" s="58">
         <v>4.0000000000000098</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="56">
         <f t="shared" si="22"/>
         <v>3.0000000000000075</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="57">
         <f t="shared" si="23"/>
         <v>231.81818181818241</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="56">
         <f t="shared" si="24"/>
         <v>2.0000000000000049</v>
       </c>
-      <c r="G27" s="62">
+      <c r="G27" s="57">
         <f t="shared" si="25"/>
         <v>154.54545454545493</v>
       </c>
@@ -3698,4 +3721,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="I14:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="70">
+        <v>8</v>
+      </c>
+      <c r="E4" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="70">
+        <v>10</v>
+      </c>
+      <c r="E5" s="70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="71">
+        <f>(D4/1.255-1)*D5</f>
+        <v>53.745019920318732</v>
+      </c>
+      <c r="E6" s="71">
+        <f>(E4/1.255-1)*E5</f>
+        <v>29.840637450199207</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="70">
+        <v>10</v>
+      </c>
+      <c r="E9" s="70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="70">
+        <v>56</v>
+      </c>
+      <c r="E10" s="70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="70">
+        <f>(D10/D9+1)*1.255</f>
+        <v>8.2829999999999995</v>
+      </c>
+      <c r="E11" s="70">
+        <f>(E10/E9+1)*1.255</f>
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>